--- a/results/FrequencyTables/25808449_T9.xlsx
+++ b/results/FrequencyTables/25808449_T9.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.000966519755663806</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0138019021108791</v>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>0.0871800819608753</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.000579911853398283</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.971236372071445</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00862135622052115</v>
       </c>
       <c r="H2">
-        <v>0.98</v>
+        <v>0.994123559885564</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00572179695352973</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.00506456351967834</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0105543957318488</v>
       </c>
       <c r="M2">
-        <v>0.02</v>
+        <v>0.0677337044769195</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00100518054589036</v>
       </c>
       <c r="O2">
-        <v>0.94</v>
+        <v>0.855408644552695</v>
       </c>
       <c r="P2">
-        <v>0.97</v>
+        <v>0.954109642001083</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00143044923838243</v>
       </c>
       <c r="R2">
-        <v>0.01</v>
+        <v>0.0615866388308977</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.998337586020258</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.998530889971391</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000193303951132761</v>
       </c>
       <c r="V2">
-        <v>0.07</v>
+        <v>0.178844815588031</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00146911002860898</v>
       </c>
       <c r="X2">
-        <v>0.65</v>
+        <v>0.89078326760999</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.997255083893915</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.951712673007036</v>
       </c>
       <c r="D3">
-        <v>0.98</v>
+        <v>0.910345627464625</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000463929482718627</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00208768267223382</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.99114667903812</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000541251063171731</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.86607902265522e-05</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000541251063171731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.999072141034563</v>
       </c>
       <c r="L3">
-        <v>0.99</v>
+        <v>0.98766720791773</v>
       </c>
       <c r="M3">
-        <v>0.98</v>
+        <v>0.930565220753112</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000154643160906209</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00146911002860898</v>
       </c>
       <c r="P3">
-        <v>0.03</v>
+        <v>0.0443052655996289</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>7.73215804531045e-05</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000154643160906209</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000657233433851388</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.000734555014304492</v>
       </c>
       <c r="U3">
-        <v>0.09</v>
+        <v>0.231810098198407</v>
       </c>
       <c r="V3">
-        <v>0.93</v>
+        <v>0.819338127271321</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000541251063171731</v>
       </c>
       <c r="X3">
-        <v>0.28</v>
+        <v>0.0166241397974175</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00139178844815588</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000579911853398283</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.000115982370679657</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.998646872342071</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0254774607592979</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.86607902265522e-05</v>
       </c>
       <c r="H4">
-        <v>0.02</v>
+        <v>0.00502590272945179</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.994123559885564</v>
       </c>
       <c r="J4">
-        <v>0.99</v>
+        <v>0.99427820304647</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>7.73215804531045e-05</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00069589422407794</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.998685533132297</v>
       </c>
       <c r="O4">
-        <v>0.06</v>
+        <v>0.140454650893064</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00069589422407794</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.998066960488672</v>
       </c>
       <c r="R4">
-        <v>0.99</v>
+        <v>0.93698291193072</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000541251063171731</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000463929482718627</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000618572643624836</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00034794711203897</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.997680352586407</v>
       </c>
       <c r="X4">
-        <v>0.07</v>
+        <v>0.091432768885796</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000309286321812418</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0330936364339287</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00069589422407794</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000309286321812418</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000889198175210701</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000193303951132761</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000154643160906209</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.73215804531045e-05</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.000850537384984149</v>
       </c>
       <c r="L5">
-        <v>0.01</v>
+        <v>0.00154643160906209</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000425268692492075</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000154643160906209</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000309286321812418</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.000270625531585866</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000425268692492075</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>3.86607902265522e-05</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000425268692492075</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000270625531585866</v>
       </c>
       <c r="U5">
-        <v>0.91</v>
+        <v>0.764865073842109</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000463929482718627</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000231964741359313</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>7.73215804531045e-05</v>
       </c>
     </row>
   </sheetData>
